--- a/Test/Excel Files Orianga/Solver for POJ_grove to storagev2.xlsx
+++ b/Test/Excel Files Orianga/Solver for POJ_grove to storagev2.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="25306"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Test\Excel Files Orianga\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1160" yWindow="0" windowWidth="25600" windowHeight="14320"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="17835"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -64,15 +69,15 @@
     <definedName name="solver_tol" localSheetId="0" hidden="1">0.01</definedName>
     <definedName name="solver_typ" localSheetId="0" hidden="1">2</definedName>
     <definedName name="solver_val" localSheetId="0" hidden="1">0</definedName>
-    <definedName name="solver_ver" localSheetId="0" hidden="1">2</definedName>
+    <definedName name="solver_ver" localSheetId="0" hidden="1">3</definedName>
   </definedNames>
-  <calcPr calcId="140001" concurrentCalc="0"/>
+  <calcPr calcId="152511" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
 </workbook>
@@ -1509,7 +1514,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1519,35 +1524,35 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AJ64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F27" workbookViewId="0">
-      <selection activeCell="F58" sqref="F58"/>
+    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
+      <selection activeCell="D44" sqref="D44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="16.1640625" customWidth="1"/>
-    <col min="5" max="5" width="9.1640625" customWidth="1"/>
-    <col min="7" max="7" width="10.33203125" customWidth="1"/>
-    <col min="12" max="12" width="16.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.140625" customWidth="1"/>
+    <col min="5" max="5" width="9.140625" customWidth="1"/>
+    <col min="7" max="7" width="10.28515625" customWidth="1"/>
+    <col min="12" max="12" width="16.140625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="14" customWidth="1"/>
-    <col min="14" max="14" width="16.1640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="16.140625" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="11" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="12.1640625" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="12.83203125" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="12.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:14">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:14">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -1555,7 +1560,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:14">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>24</v>
       </c>
@@ -1578,7 +1583,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:14">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>3</v>
       </c>
@@ -1611,7 +1616,7 @@
         <v>718</v>
       </c>
     </row>
-    <row r="8" spans="1:14">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>4</v>
       </c>
@@ -1643,7 +1648,7 @@
         <v>2339</v>
       </c>
     </row>
-    <row r="9" spans="1:14">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>5</v>
       </c>
@@ -1675,7 +1680,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="10" spans="1:14">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>6</v>
       </c>
@@ -1695,7 +1700,7 @@
         <v>1881</v>
       </c>
     </row>
-    <row r="11" spans="1:14">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>7</v>
       </c>
@@ -1715,7 +1720,7 @@
         <v>1161</v>
       </c>
     </row>
-    <row r="12" spans="1:14">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>8</v>
       </c>
@@ -1735,17 +1740,17 @@
         <v>1161</v>
       </c>
     </row>
-    <row r="14" spans="1:14">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="15" spans="1:14">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="16" spans="1:14">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
         <v>25</v>
       </c>
@@ -1765,7 +1770,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="1:24">
+    <row r="17" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>10</v>
       </c>
@@ -1810,7 +1815,7 @@
       <c r="Q17" s="28"/>
       <c r="R17" s="28"/>
     </row>
-    <row r="18" spans="1:24">
+    <row r="18" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
         <v>4</v>
       </c>
@@ -1846,7 +1851,7 @@
       <c r="Q18" s="28"/>
       <c r="R18" s="28"/>
     </row>
-    <row r="19" spans="1:24">
+    <row r="19" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
         <v>5</v>
       </c>
@@ -1886,7 +1891,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="20" spans="1:24">
+    <row r="20" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
         <v>6</v>
       </c>
@@ -1918,7 +1923,7 @@
         <v>1608.6200000000001</v>
       </c>
     </row>
-    <row r="21" spans="1:24">
+    <row r="21" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
         <v>7</v>
       </c>
@@ -1948,7 +1953,7 @@
         <v>1996.73</v>
       </c>
     </row>
-    <row r="22" spans="1:24">
+    <row r="22" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
         <v>8</v>
       </c>
@@ -1978,7 +1983,7 @@
         <v>1901.42</v>
       </c>
     </row>
-    <row r="23" spans="1:24">
+    <row r="23" spans="1:24" x14ac:dyDescent="0.25">
       <c r="N23" s="28"/>
       <c r="O23" s="28" t="s">
         <v>6</v>
@@ -1993,7 +1998,7 @@
         <v>1965.1799999999998</v>
       </c>
     </row>
-    <row r="24" spans="1:24">
+    <row r="24" spans="1:24" x14ac:dyDescent="0.25">
       <c r="N24" s="28"/>
       <c r="O24" s="28" t="s">
         <v>7</v>
@@ -2008,7 +2013,7 @@
         <v>1673.46</v>
       </c>
     </row>
-    <row r="25" spans="1:24">
+    <row r="25" spans="1:24" x14ac:dyDescent="0.25">
       <c r="N25" s="28"/>
       <c r="O25" s="28" t="s">
         <v>8</v>
@@ -2023,23 +2028,23 @@
         <v>1824.46</v>
       </c>
     </row>
-    <row r="27" spans="1:24">
+    <row r="27" spans="1:24" x14ac:dyDescent="0.25">
       <c r="H27" s="2"/>
       <c r="I27" s="2"/>
       <c r="J27" s="2"/>
       <c r="K27" s="2"/>
     </row>
-    <row r="28" spans="1:24">
+    <row r="28" spans="1:24" x14ac:dyDescent="0.25">
       <c r="I28" s="2"/>
       <c r="J28" s="2"/>
       <c r="K28" s="2"/>
     </row>
-    <row r="29" spans="1:24">
+    <row r="29" spans="1:24" x14ac:dyDescent="0.25">
       <c r="I29" s="2"/>
       <c r="J29" s="2"/>
       <c r="K29" s="2"/>
     </row>
-    <row r="30" spans="1:24">
+    <row r="30" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>16</v>
       </c>
@@ -2047,7 +2052,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="31" spans="1:24">
+    <row r="31" spans="1:24" x14ac:dyDescent="0.25">
       <c r="C31" s="6"/>
       <c r="D31" s="7"/>
       <c r="E31" s="31" t="s">
@@ -2077,7 +2082,7 @@
       <c r="W31" s="32"/>
       <c r="X31" s="27"/>
     </row>
-    <row r="32" spans="1:24">
+    <row r="32" spans="1:24" x14ac:dyDescent="0.25">
       <c r="C32" s="9" t="s">
         <v>11</v>
       </c>
@@ -2102,7 +2107,7 @@
       <c r="V32" s="10"/>
       <c r="W32" s="11"/>
     </row>
-    <row r="33" spans="1:36">
+    <row r="33" spans="1:36" x14ac:dyDescent="0.25">
       <c r="C33" s="9" t="s">
         <v>28</v>
       </c>
@@ -2206,7 +2211,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="34" spans="1:36">
+    <row r="34" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>10</v>
       </c>
@@ -2232,13 +2237,13 @@
         <v>0</v>
       </c>
       <c r="I34" s="7">
-        <v>174.31498164003096</v>
+        <v>155.96471732629092</v>
       </c>
       <c r="J34" s="7">
         <v>0</v>
       </c>
       <c r="K34" s="8">
-        <v>667.19551810766745</v>
+        <v>573.63500211667508</v>
       </c>
       <c r="L34" s="6">
         <v>0</v>
@@ -2259,13 +2264,13 @@
         <v>0</v>
       </c>
       <c r="R34" s="7">
-        <v>182.52831919324478</v>
+        <v>182.5218107581299</v>
       </c>
       <c r="S34" s="7">
         <v>0</v>
       </c>
       <c r="T34" s="8">
-        <v>610.3175</v>
+        <v>610.31748729367769</v>
       </c>
       <c r="U34" s="6">
         <v>0</v>
@@ -2278,7 +2283,7 @@
       </c>
       <c r="X34" s="16">
         <f>+SUM(C34:W34)</f>
-        <v>2635.8531320468473</v>
+        <v>2523.9358306006779</v>
       </c>
       <c r="Y34">
         <f t="shared" ref="Y34:Y39" si="1">SUM(C34,D34,E34,M34,N34,L34)</f>
@@ -2298,11 +2303,11 @@
       </c>
       <c r="AC34">
         <f>SUM(K34,J34,I34,T34,S34,R34)</f>
-        <v>1634.3563189409433</v>
+        <v>1522.4390174947737</v>
       </c>
       <c r="AD34" s="17">
         <f>AC34/X34*100</f>
-        <v>62.00483247986579</v>
+        <v>60.320036628365649</v>
       </c>
       <c r="AE34" s="17">
         <f>U34</f>
@@ -2326,10 +2331,10 @@
       </c>
       <c r="AJ34" s="17">
         <f>AI34/X34*100</f>
-        <v>37.995167520134217</v>
-      </c>
-    </row>
-    <row r="35" spans="1:36">
+        <v>39.679963371634344</v>
+      </c>
+    </row>
+    <row r="35" spans="1:36" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
         <v>4</v>
       </c>
@@ -2355,7 +2360,7 @@
         <v>0</v>
       </c>
       <c r="J35" s="10">
-        <v>1.1231528525154617E-5</v>
+        <v>1.1231527651790147E-5</v>
       </c>
       <c r="K35" s="11">
         <v>0</v>
@@ -2398,7 +2403,7 @@
       </c>
       <c r="X35" s="16">
         <f>+SUM(C35:W35)</f>
-        <v>1.1231528525154617E-5</v>
+        <v>1.1231527651790147E-5</v>
       </c>
       <c r="Y35">
         <f t="shared" si="1"/>
@@ -2418,7 +2423,7 @@
       </c>
       <c r="AC35">
         <f t="shared" ref="AC35:AC39" si="5">SUM(K35,J35,I35,T35,S35,R35)</f>
-        <v>1.1231528525154617E-5</v>
+        <v>1.1231527651790147E-5</v>
       </c>
       <c r="AD35" s="17">
         <f t="shared" ref="AD35:AD37" si="6">AC35/X35*100</f>
@@ -2449,7 +2454,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:36">
+    <row r="36" spans="1:36" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
         <v>5</v>
       </c>
@@ -2499,7 +2504,7 @@
         <v>0</v>
       </c>
       <c r="R36" s="10">
-        <v>2.5607808067726259</v>
+        <v>2.5672997175939285</v>
       </c>
       <c r="S36" s="10">
         <v>0</v>
@@ -2518,7 +2523,7 @@
       </c>
       <c r="X36" s="16">
         <f t="shared" ref="X36:X39" si="13">+SUM(C36:W36)</f>
-        <v>192.47411844290016</v>
+        <v>192.48063735372148</v>
       </c>
       <c r="Y36">
         <f t="shared" si="1"/>
@@ -2538,11 +2543,11 @@
       </c>
       <c r="AC36">
         <f t="shared" si="5"/>
-        <v>2.5607808067726259</v>
+        <v>2.5672997175939285</v>
       </c>
       <c r="AD36" s="17">
         <f t="shared" si="6"/>
-        <v>1.3304546229327521</v>
+        <v>1.3337963510979052</v>
       </c>
       <c r="AE36" s="17">
         <f t="shared" si="7"/>
@@ -2550,7 +2555,7 @@
       </c>
       <c r="AF36" s="17">
         <f t="shared" si="8"/>
-        <v>98.669545377067251</v>
+        <v>98.666203648902098</v>
       </c>
       <c r="AG36" s="17">
         <f t="shared" si="9"/>
@@ -2569,7 +2574,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:36">
+    <row r="37" spans="1:36" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
         <v>6</v>
       </c>
@@ -2583,16 +2588,16 @@
         <v>0</v>
       </c>
       <c r="F37" s="10">
-        <v>0.36990819954062981</v>
+        <v>0.36988470047750094</v>
       </c>
       <c r="G37" s="10">
-        <v>174.11325495174566</v>
+        <v>157.55850947970617</v>
       </c>
       <c r="H37" s="10">
         <v>0</v>
       </c>
       <c r="I37" s="10">
-        <v>1.0277356877483008E-5</v>
+        <v>1.0277356728707327E-5</v>
       </c>
       <c r="J37" s="10">
         <v>0</v>
@@ -2613,7 +2618,7 @@
         <v>0</v>
       </c>
       <c r="P37" s="10">
-        <v>236.94939997370878</v>
+        <v>236.94938501133001</v>
       </c>
       <c r="Q37" s="10">
         <v>0</v>
@@ -2638,7 +2643,7 @@
       </c>
       <c r="X37" s="16">
         <f t="shared" si="13"/>
-        <v>616.16578543501112</v>
+        <v>599.61100150152959</v>
       </c>
       <c r="Y37">
         <f t="shared" si="1"/>
@@ -2650,19 +2655,19 @@
       </c>
       <c r="AA37">
         <f t="shared" si="3"/>
-        <v>411.43256312499506</v>
+        <v>394.8777791915137</v>
       </c>
       <c r="AB37" s="17">
         <f t="shared" si="4"/>
-        <v>66.77302973493164</v>
+        <v>65.855659452990594</v>
       </c>
       <c r="AC37">
         <f t="shared" si="5"/>
-        <v>1.0303648134522554E-5</v>
+        <v>1.0303647985746874E-5</v>
       </c>
       <c r="AD37" s="17">
         <f t="shared" si="6"/>
-        <v>1.6722201034333984E-6</v>
+        <v>1.7183887486961977E-6</v>
       </c>
       <c r="AE37" s="17">
         <f t="shared" si="7"/>
@@ -2678,7 +2683,7 @@
       </c>
       <c r="AH37" s="17">
         <f t="shared" si="10"/>
-        <v>33.226968592848252</v>
+        <v>34.144338828620647</v>
       </c>
       <c r="AI37" s="17">
         <f t="shared" si="11"/>
@@ -2689,7 +2694,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:36">
+    <row r="38" spans="1:36" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
         <v>7</v>
       </c>
@@ -2809,7 +2814,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:36">
+    <row r="39" spans="1:36" x14ac:dyDescent="0.25">
       <c r="B39" t="s">
         <v>8</v>
       </c>
@@ -2929,7 +2934,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:36">
+    <row r="40" spans="1:36" x14ac:dyDescent="0.25">
       <c r="C40" t="s">
         <v>12</v>
       </c>
@@ -2958,36 +2963,36 @@
         <v>14</v>
       </c>
     </row>
-    <row r="41" spans="1:36">
+    <row r="41" spans="1:36" x14ac:dyDescent="0.25">
       <c r="B41" t="s">
         <v>39</v>
       </c>
       <c r="C41">
         <f>SUM(C34:C39)+SUM(F34:F39)+SUM(I34:I39)</f>
-        <v>174.68490011692845</v>
+        <v>156.33461230412516</v>
       </c>
       <c r="D41">
         <f>SUM(D34:D39)+SUM(G34:G39)+SUM(J34:J39)</f>
-        <v>174.11326631239692</v>
+        <v>157.55852084035655</v>
       </c>
       <c r="E41">
         <f>SUM(E34:E39)+SUM(H34:H39)+SUM(K34:K39)</f>
-        <v>667.19551810766745</v>
+        <v>573.63500211667508</v>
       </c>
       <c r="L41" t="s">
         <v>40</v>
       </c>
       <c r="M41">
         <f>SUM(L34:L39)+SUM(O34:O39)+SUM(R34:R39)</f>
-        <v>185.0891000000174</v>
+        <v>185.08911047572383</v>
       </c>
       <c r="N41">
         <f>SUM(M34:M39)+SUM(P34:P39)+SUM(S34:S39)</f>
-        <v>236.94940000000003</v>
+        <v>236.94938503762125</v>
       </c>
       <c r="O41">
         <f>SUM(N34:N39)+SUM(Q34:Q39)+SUM(T34:T39)</f>
-        <v>610.3175</v>
+        <v>610.31748729367769</v>
       </c>
       <c r="U41">
         <f>SUM(U34:U39)</f>
@@ -3002,7 +3007,7 @@
         <v>1001.4968131059042</v>
       </c>
     </row>
-    <row r="42" spans="1:36">
+    <row r="42" spans="1:36" x14ac:dyDescent="0.25">
       <c r="C42" t="s">
         <v>17</v>
       </c>
@@ -3031,33 +3036,33 @@
         <v>17</v>
       </c>
     </row>
-    <row r="43" spans="1:36">
+    <row r="43" spans="1:36" x14ac:dyDescent="0.25">
       <c r="B43" t="s">
         <v>18</v>
       </c>
       <c r="C43" s="15">
-        <v>174.68490362788151</v>
+        <v>156.33461230412411</v>
       </c>
       <c r="D43" s="15">
-        <v>174.11327642011221</v>
+        <v>157.55852084035658</v>
       </c>
       <c r="E43" s="24">
-        <v>667.19553676695114</v>
+        <v>573.63500211667508</v>
       </c>
       <c r="L43" t="s">
         <v>18</v>
       </c>
       <c r="M43" s="29">
         <f>SUM(M44:M45)</f>
-        <v>185.0891</v>
+        <v>185.08911047570876</v>
       </c>
       <c r="N43">
         <f>SUM(N44:N45)</f>
-        <v>236.9494</v>
+        <v>236.94938503762125</v>
       </c>
       <c r="O43">
         <f>SUM(O44:O45)</f>
-        <v>610.3175</v>
+        <v>610.31748729367769</v>
       </c>
       <c r="T43" t="s">
         <v>18</v>
@@ -3072,37 +3077,37 @@
         <v>1001.4968131059042</v>
       </c>
     </row>
-    <row r="44" spans="1:36">
+    <row r="44" spans="1:36" x14ac:dyDescent="0.25">
       <c r="B44" t="s">
         <v>41</v>
       </c>
       <c r="C44">
         <f>C41+M41+U41</f>
-        <v>549.68733775307339</v>
+        <v>531.33706041597657</v>
       </c>
       <c r="D44">
         <f>D41+N41+V41</f>
-        <v>615.79587831876484</v>
+        <v>599.24111788434573</v>
       </c>
       <c r="E44" s="25">
         <f>E41+O41+W41</f>
-        <v>2279.0098312135715</v>
+        <v>2185.4493025162569</v>
       </c>
       <c r="L44" t="s">
         <v>48</v>
       </c>
       <c r="M44" s="30">
-        <v>125.5903</v>
+        <v>125.59027044609167</v>
       </c>
       <c r="N44" s="15">
-        <v>146.9187</v>
+        <v>146.91870439514648</v>
       </c>
       <c r="O44" s="15">
-        <v>326.4923</v>
+        <v>326.4922752722415</v>
       </c>
       <c r="Q44" s="4"/>
     </row>
-    <row r="45" spans="1:36">
+    <row r="45" spans="1:36" x14ac:dyDescent="0.25">
       <c r="B45" t="s">
         <v>19</v>
       </c>
@@ -3119,16 +3124,16 @@
         <v>49</v>
       </c>
       <c r="M45" s="15">
-        <v>59.498800000000003</v>
+        <v>59.498840029617106</v>
       </c>
       <c r="N45" s="15">
-        <v>90.030699999999996</v>
+        <v>90.030680642474792</v>
       </c>
       <c r="O45" s="15">
-        <v>283.8252</v>
-      </c>
-    </row>
-    <row r="46" spans="1:36">
+        <v>283.82521202143619</v>
+      </c>
+    </row>
+    <row r="46" spans="1:36" x14ac:dyDescent="0.25">
       <c r="B46" t="s">
         <v>22</v>
       </c>
@@ -3146,18 +3151,18 @@
       </c>
       <c r="M46" s="16">
         <f>100*M45/(M43+43.75)</f>
-        <v>26.000277050556484</v>
+        <v>26.000293352797705</v>
       </c>
       <c r="N46" s="16">
         <f>100*N45/(N43+43)</f>
-        <v>32.159633133702023</v>
+        <v>32.159627937877396</v>
       </c>
       <c r="O46" s="16">
         <f>100*O45/(O43+143)</f>
-        <v>37.67670338204011</v>
-      </c>
-    </row>
-    <row r="47" spans="1:36">
+        <v>37.676705613338314</v>
+      </c>
+    </row>
+    <row r="47" spans="1:36" x14ac:dyDescent="0.25">
       <c r="C47" t="s">
         <v>25</v>
       </c>
@@ -3168,7 +3173,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="48" spans="1:36">
+    <row r="48" spans="1:36" x14ac:dyDescent="0.25">
       <c r="B48" t="s">
         <v>42</v>
       </c>
@@ -3178,17 +3183,17 @@
       </c>
       <c r="D48">
         <f>SUM(F34:F39)+SUM(G34:G39)+SUM(H34:H39)+SUM(O34:O39)+SUM(P34:P39)+SUM(Q34:Q39)</f>
-        <v>411.43256312499506</v>
+        <v>394.8777791915137</v>
       </c>
       <c r="E48">
         <f>SUM(I34:I39)+SUM(J34:J39)+SUM(K34:K39)+SUM(R34:R39)+SUM(S34:S39)+SUM(T34:T39)</f>
-        <v>1636.9171214120151</v>
+        <v>1525.0063388766657</v>
       </c>
       <c r="L48" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="49" spans="2:31">
+    <row r="49" spans="2:31" x14ac:dyDescent="0.25">
       <c r="C49" t="s">
         <v>20</v>
       </c>
@@ -3203,7 +3208,7 @@
       </c>
       <c r="M49" s="5">
         <f>SUMPRODUCT(U34:W39,P20:R25)+SUMPRODUCT(C17:C22,C34:C39+L34:L39)+I17*(SUM(C34:C39)+SUM(L34:L39))+SUMPRODUCT(C17:C22,D34:D39+M34:M39)+J17*(SUM(D34:D39)+SUM(M34:M39))+SUMPRODUCT(C17:C22,E34:E39+N34:N39)+K17*(SUM(E34:E39)+SUM(N34:N39))+SUMPRODUCT(D17:D22,F34:F39+O34:O39)+I18*(SUM(F34:F39)+SUM(O34:O39))+SUMPRODUCT(D17:D22,G34:G39+P34:P39)+J18*(SUM(G34:G39)+SUM(P34:P39))+SUMPRODUCT(D17:D22,H34:H39+Q34:Q39)+K18*(SUM(H34:H39)+SUM(Q34:Q39))+SUMPRODUCT(E17:E22,I34:I39+R34:R39)+I19*(SUM(I34:I39)+SUM(R34:R39))+SUMPRODUCT(E17:E22,J34:J39+S34:S39)+J19*(SUM(J34:J39)+SUM(S34:S39))+SUMPRODUCT(E17:E22,K34:K39+T34:T39)+K19*(SUM(K34:K39)+SUM(T34:T39))</f>
-        <v>6243299.8585685361</v>
+        <v>5988497.106230068</v>
       </c>
       <c r="Z49" t="s">
         <v>25</v>
@@ -3224,7 +3229,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="50" spans="2:31">
+    <row r="50" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B50" t="s">
         <v>22</v>
       </c>
@@ -3239,7 +3244,7 @@
       </c>
       <c r="M50" s="19">
         <f>48*M49</f>
-        <v>299678393.21128976</v>
+        <v>287447861.09904325</v>
       </c>
       <c r="Y50" t="s">
         <v>3</v>
@@ -3254,7 +3259,7 @@
       </c>
       <c r="AB50" s="16">
         <f t="shared" ref="AB50:AB55" si="16">AD34</f>
-        <v>62.00483247986579</v>
+        <v>60.320036628365649</v>
       </c>
       <c r="AC50" s="16">
         <f t="shared" ref="AC50:AC55" si="17">AF34</f>
@@ -3266,16 +3271,16 @@
       </c>
       <c r="AE50" s="16">
         <f t="shared" ref="AE50:AE55" si="19">AJ34</f>
-        <v>37.995167520134217</v>
-      </c>
-    </row>
-    <row r="51" spans="2:31">
+        <v>39.679963371634344</v>
+      </c>
+    </row>
+    <row r="51" spans="2:31" x14ac:dyDescent="0.25">
       <c r="L51" s="28" t="s">
         <v>21</v>
       </c>
       <c r="M51">
         <f>SUMPRODUCT(U34:W39,P20:R25)+SUMPRODUCT(C17:C22,C34:C39+D34:D39+E34:E39+L34:L39+M34:M39+N34:N39)+SUMPRODUCT(D17:D22,F34:F39+G34:G39+H34:H39+O34:O39+P34:P39+Q34:Q39)+SUMPRODUCT(E17:E22,I34:I39+J34:J39+K34:K39+R34:R39+S34:S39+T34:T39)+I17*(SUM(C34:C39)+SUM(O34:O39))+J17*(SUM(D34:D39)+SUM(M34:M39))+K17*(SUM(E34:E39)+SUM(N34:N39))+I18*(SUM(F34:F39)+SUM(O34:O39))+J18*(SUM(G34:G39)+SUM(P34:P39))+K18*(SUM(H34:H39)+SUM(Q34:Q39))+I19*(SUM(I34:I39)+SUM(R34:R39))+J19*(SUM(J34:J39)+SUM(S34:S39))+K19*(SUM(K34:K39)+SUM(T34:T39))</f>
-        <v>6243299.8585685361</v>
+        <v>5988497.106230068</v>
       </c>
       <c r="Y51" t="s">
         <v>4</v>
@@ -3305,7 +3310,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="2:31">
+    <row r="52" spans="2:31" x14ac:dyDescent="0.25">
       <c r="M52" s="20"/>
       <c r="N52" s="20"/>
       <c r="O52" s="20"/>
@@ -3322,11 +3327,11 @@
       </c>
       <c r="AB52" s="16">
         <f t="shared" si="16"/>
-        <v>1.3304546229327521</v>
+        <v>1.3337963510979052</v>
       </c>
       <c r="AC52" s="16">
         <f t="shared" si="17"/>
-        <v>98.669545377067251</v>
+        <v>98.666203648902098</v>
       </c>
       <c r="AD52" s="16">
         <f t="shared" si="18"/>
@@ -3337,7 +3342,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="2:31">
+    <row r="53" spans="2:31" x14ac:dyDescent="0.25">
       <c r="L53" s="18"/>
       <c r="M53" s="20"/>
       <c r="N53" s="20"/>
@@ -3351,11 +3356,11 @@
       </c>
       <c r="AA53" s="16">
         <f t="shared" si="15"/>
-        <v>66.77302973493164</v>
+        <v>65.855659452990594</v>
       </c>
       <c r="AB53" s="16">
         <f t="shared" si="16"/>
-        <v>1.6722201034333984E-6</v>
+        <v>1.7183887486961977E-6</v>
       </c>
       <c r="AC53" s="16">
         <f t="shared" si="17"/>
@@ -3363,14 +3368,14 @@
       </c>
       <c r="AD53" s="16">
         <f t="shared" si="18"/>
-        <v>33.226968592848252</v>
+        <v>34.144338828620647</v>
       </c>
       <c r="AE53" s="16">
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="2:31">
+    <row r="54" spans="2:31" x14ac:dyDescent="0.25">
       <c r="C54" t="s">
         <v>25</v>
       </c>
@@ -3409,7 +3414,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="2:31">
+    <row r="55" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B55" t="s">
         <v>37</v>
       </c>
@@ -3419,11 +3424,11 @@
       </c>
       <c r="D55">
         <f>SUM(F34:H39)</f>
-        <v>174.48316315128628</v>
+        <v>157.92839418018369</v>
       </c>
       <c r="E55">
         <f>SUM(I34:K39)</f>
-        <v>841.51052138570662</v>
+        <v>729.59974108097322</v>
       </c>
       <c r="L55" s="18"/>
       <c r="Y55" t="s">
@@ -3454,7 +3459,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="2:31">
+    <row r="56" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B56" t="s">
         <v>38</v>
       </c>
@@ -3464,15 +3469,15 @@
       </c>
       <c r="D56">
         <f>SUM(O34:Q39)</f>
-        <v>236.94939997370878</v>
+        <v>236.94938501133001</v>
       </c>
       <c r="E56">
         <f>SUM(R34:T39)</f>
-        <v>795.40660002630864</v>
+        <v>795.40659779569285</v>
       </c>
       <c r="L56" s="18"/>
     </row>
-    <row r="57" spans="2:31">
+    <row r="57" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B57" t="s">
         <v>43</v>
       </c>
@@ -3482,15 +3487,15 @@
       </c>
       <c r="D57">
         <f>SUM(D55:D56)</f>
-        <v>411.43256312499506</v>
+        <v>394.8777791915137</v>
       </c>
       <c r="E57">
         <f>SUM(E55:E56)</f>
-        <v>1636.9171214120151</v>
+        <v>1525.0063388766662</v>
       </c>
       <c r="L57" s="18"/>
     </row>
-    <row r="58" spans="2:31">
+    <row r="58" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B58" s="16" t="s">
         <v>47</v>
       </c>
@@ -3500,18 +3505,18 @@
       </c>
       <c r="D58" s="16">
         <f>D55/D57*100</f>
-        <v>42.408690704016422</v>
+        <v>39.994246954977228</v>
       </c>
       <c r="E58" s="16">
         <f>E55/E57*100</f>
-        <v>51.408254601174576</v>
+        <v>47.842407108838849</v>
       </c>
       <c r="L58" s="18"/>
     </row>
-    <row r="59" spans="2:31">
+    <row r="59" spans="2:31" x14ac:dyDescent="0.25">
       <c r="L59" s="10"/>
     </row>
-    <row r="60" spans="2:31">
+    <row r="60" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B60" s="16"/>
       <c r="C60" s="16" t="s">
         <v>25</v>
@@ -3526,7 +3531,7 @@
       </c>
       <c r="H60" s="16"/>
     </row>
-    <row r="61" spans="2:31">
+    <row r="61" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B61" s="16"/>
       <c r="C61" s="16" t="s">
         <v>38</v>
@@ -3547,7 +3552,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="62" spans="2:31">
+    <row r="62" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B62" s="16" t="s">
         <v>12</v>
       </c>
@@ -3565,18 +3570,18 @@
       </c>
       <c r="F62" s="16">
         <f>100*SUM(F34:F39)/(SUM($F$34:$F$39)+SUM($G$34:$G$39)+SUM($H$34:$H$39))</f>
-        <v>0.21200223153903938</v>
+        <v>0.23421038528099766</v>
       </c>
       <c r="G62" s="16">
         <f>100*SUM(R34:R39)/(SUM($R$34:$R$39)+SUM($S$34:$S$39)+SUM($T$34:$T$39))</f>
-        <v>23.269746566585621</v>
+        <v>23.269747948867984</v>
       </c>
       <c r="H62" s="16">
         <f>SUM(I$34:I$39)*100/(SUM($I$34:$I$39)+SUM($J$34:$J$39)+SUM($K$34:$K$39))</f>
-        <v>20.714535051842866</v>
-      </c>
-    </row>
-    <row r="63" spans="2:31">
+        <v>21.376752049359379</v>
+      </c>
+    </row>
+    <row r="63" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B63" s="16" t="s">
         <v>13</v>
       </c>
@@ -3594,18 +3599,18 @@
       </c>
       <c r="F63" s="16">
         <f>100*SUM(G34:G39)/(SUM($F$34:$F$39)+SUM($G$34:$G$39)+SUM($H$34:$H$39))</f>
-        <v>99.787997768460968</v>
+        <v>99.765789614718997</v>
       </c>
       <c r="G63" s="16">
         <f>100*SUM(S34:S39)/(SUM($R$34:$R$39)+SUM($S$34:$S$39)+SUM($T$34:$T$39))</f>
-        <v>3.3053858289177121E-9</v>
+        <v>3.3053858381872432E-9</v>
       </c>
       <c r="H63" s="16">
         <f>SUM(J$34:J$39)*100/(SUM($I$34:$I$39)+SUM($J$34:$J$39)+SUM($K$34:$K$39))</f>
-        <v>1.350030803733877E-6</v>
-      </c>
-    </row>
-    <row r="64" spans="2:31">
+        <v>1.5571072387131349E-6</v>
+      </c>
+    </row>
+    <row r="64" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B64" s="16" t="s">
         <v>14</v>
       </c>
@@ -3627,11 +3632,11 @@
       </c>
       <c r="G64" s="16">
         <f>100*SUM(T34:T39)/(SUM($R$34:$R$39)+SUM($S$34:$S$39)+SUM($T$34:$T$39))</f>
-        <v>76.730253430108988</v>
+        <v>76.730252047826639</v>
       </c>
       <c r="H64" s="16">
         <f>SUM(K$34:K$39)*100/(SUM($I$34:$I$39)+SUM($J$34:$J$39)+SUM($K$34:$K$39))</f>
-        <v>79.285463598126327</v>
+        <v>78.623246393533378</v>
       </c>
     </row>
   </sheetData>
